--- a/countries_continents_codes.xlsx
+++ b/countries_continents_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B7BD07-7683-4827-8C01-DBF6CF93BE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF47CE5A-6899-4460-8F9A-489BCA63341D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D780024-E873-4056-B730-B9EB86F6C5DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D780024-E873-4056-B730-B9EB86F6C5DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="535">
   <si>
     <t>No</t>
   </si>
@@ -1635,6 +1635,9 @@
   </si>
   <si>
     <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Turkiye</t>
   </si>
 </sst>
 </file>
@@ -1986,18 +1989,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA404B15-9916-4CF0-94C9-E1E87D8CCB77}">
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2943,7 +2946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3247,7 +3250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3267,7 +3270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3574,7 +3577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3832,7 +3835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3961,7 +3964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4001,7 +4004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4067,7 +4070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4388,7 +4391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4511,7 +4514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4637,7 +4640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4697,7 +4700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4763,7 +4766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4909,7 +4912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4972,7 +4975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5015,7 +5018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5107,7 +5110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5167,7 +5170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5253,7 +5256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5396,7 +5399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5442,7 +5445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5465,7 +5468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5505,7 +5508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5525,7 +5528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5565,7 +5568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5585,7 +5588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5625,7 +5628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5691,7 +5694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5734,7 +5737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5817,7 +5820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5920,7 +5923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5963,7 +5966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6055,7 +6058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6161,7 +6164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6204,7 +6207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6267,7 +6270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6290,7 +6293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6313,7 +6316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6416,7 +6419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6439,7 +6442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6462,7 +6465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6508,7 +6511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6568,7 +6571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6588,7 +6591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6611,7 +6614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6671,7 +6674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6691,7 +6694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6711,7 +6714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6731,7 +6734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6814,7 +6817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6837,7 +6840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6857,7 +6860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6940,7 +6943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7003,7 +7006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7023,7 +7026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7046,7 +7049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7066,7 +7069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7086,7 +7089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7109,7 +7112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7172,7 +7175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7195,7 +7198,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7215,7 +7218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7255,7 +7258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7275,7 +7278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7298,7 +7301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7319,6 +7322,23 @@
       </c>
       <c r="G250" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>534</v>
+      </c>
+      <c r="C251" t="s">
+        <v>490</v>
+      </c>
+      <c r="D251">
+        <v>792</v>
+      </c>
+      <c r="E251" t="s">
+        <v>46</v>
+      </c>
+      <c r="G251" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/countries_continents_codes.xlsx
+++ b/countries_continents_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF47CE5A-6899-4460-8F9A-489BCA63341D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F2459B-A20D-4F4A-86FA-238E6E36AC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D780024-E873-4056-B730-B9EB86F6C5DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D780024-E873-4056-B730-B9EB86F6C5DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="538">
   <si>
     <t>No</t>
   </si>
@@ -1638,6 +1638,15 @@
   </si>
   <si>
     <t>Turkiye</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -1989,18 +1998,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA404B15-9916-4CF0-94C9-E1E87D8CCB77}">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C252" sqref="C252"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="J253" sqref="J253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2043,7 +2052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2063,7 +2072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2083,7 +2092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2143,7 +2152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2166,7 +2175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2255,7 +2264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2298,7 +2307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2358,7 +2367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2381,7 +2390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2401,7 +2410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2421,7 +2430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2444,7 +2453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2464,7 +2473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2484,7 +2493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2507,7 +2516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2530,7 +2539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2550,7 +2559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2570,7 +2579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2593,7 +2602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2636,7 +2645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2682,7 +2691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2705,7 +2714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2728,7 +2737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2771,7 +2780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2791,7 +2800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2814,7 +2823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2837,7 +2846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2860,7 +2869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2880,7 +2889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2903,7 +2912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2923,7 +2932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2946,7 +2955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2969,7 +2978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2992,7 +3001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3015,7 +3024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3035,7 +3044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3055,7 +3064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3075,7 +3084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3138,7 +3147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3161,7 +3170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3184,7 +3193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3204,7 +3213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3227,7 +3236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3250,7 +3259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3270,7 +3279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3316,7 +3325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3336,7 +3345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3356,7 +3365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3376,7 +3385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3399,7 +3408,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3419,7 +3428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3442,7 +3451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3465,7 +3474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3488,7 +3497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3511,7 +3520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3531,7 +3540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3554,7 +3563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3577,7 +3586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3600,7 +3609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3620,7 +3629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3643,7 +3652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3666,7 +3675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3689,7 +3698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3709,7 +3718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3729,7 +3738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3749,7 +3758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3769,7 +3778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3792,7 +3801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3812,7 +3821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3835,7 +3844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3858,7 +3867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3881,7 +3890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3921,7 +3930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3944,7 +3953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3964,7 +3973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3984,7 +3993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4004,7 +4013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4027,7 +4036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4050,7 +4059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4070,7 +4079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4093,7 +4102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4116,7 +4125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4139,7 +4148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4162,7 +4171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4208,7 +4217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4228,7 +4237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4271,7 +4280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4291,7 +4300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4311,7 +4320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4331,7 +4340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4351,7 +4360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4371,7 +4380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4391,7 +4400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4411,7 +4420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4431,7 +4440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4471,7 +4480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4494,7 +4503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4514,7 +4523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4537,7 +4546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4557,7 +4566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4600,7 +4609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4620,7 +4629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4640,7 +4649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4660,7 +4669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4680,7 +4689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4700,7 +4709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4743,7 +4752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4766,7 +4775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4786,7 +4795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4806,7 +4815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4826,7 +4835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4846,7 +4855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4869,7 +4878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4892,7 +4901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4912,7 +4921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4932,7 +4941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4955,7 +4964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4975,7 +4984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4995,7 +5004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5018,7 +5027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5041,7 +5050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5064,7 +5073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5087,7 +5096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5130,7 +5139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5170,7 +5179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5190,7 +5199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5213,7 +5222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5233,7 +5242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5256,7 +5265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5276,7 +5285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5299,7 +5308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5319,7 +5328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5339,7 +5348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5359,7 +5368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5379,7 +5388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5399,7 +5408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5422,7 +5431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5445,7 +5454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5468,7 +5477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5488,7 +5497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5508,7 +5517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5528,7 +5537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5548,7 +5557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5568,7 +5577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5588,7 +5597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5608,7 +5617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5628,7 +5637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5651,7 +5660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5671,7 +5680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5694,7 +5703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5717,7 +5726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5737,7 +5746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5757,7 +5766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5777,7 +5786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5797,7 +5806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5820,7 +5829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5840,7 +5849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5860,7 +5869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5880,7 +5889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5903,7 +5912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5923,7 +5932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5943,7 +5952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5966,7 +5975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5989,7 +5998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6012,7 +6021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6035,7 +6044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6058,7 +6067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6081,7 +6090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6101,7 +6110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6124,7 +6133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6144,7 +6153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6164,7 +6173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6187,7 +6196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6207,7 +6216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6227,7 +6236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6250,7 +6259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6270,7 +6279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6293,7 +6302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6316,7 +6325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6336,7 +6345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6359,7 +6368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6379,7 +6388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6399,7 +6408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6419,7 +6428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6442,7 +6451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6465,7 +6474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6488,7 +6497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6511,7 +6520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6531,7 +6540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6551,7 +6560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6571,7 +6580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6591,7 +6600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6614,7 +6623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6634,7 +6643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6654,7 +6663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6674,7 +6683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6694,7 +6703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6714,7 +6723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6734,7 +6743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6754,7 +6763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6777,7 +6786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6797,7 +6806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6817,7 +6826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6840,7 +6849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6860,7 +6869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6880,7 +6889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6900,7 +6909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6923,7 +6932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6943,7 +6952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6966,7 +6975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6986,7 +6995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7006,7 +7015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7026,7 +7035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7049,7 +7058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7069,7 +7078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7089,7 +7098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7112,7 +7121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7135,7 +7144,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7155,7 +7164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7175,7 +7184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7198,7 +7207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7218,7 +7227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7238,7 +7247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7258,7 +7267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7278,7 +7287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7301,7 +7310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7324,7 +7333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>534</v>
       </c>
@@ -7339,6 +7348,30 @@
       </c>
       <c r="G251" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>535</v>
+      </c>
+      <c r="G252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>536</v>
+      </c>
+      <c r="G253" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>537</v>
+      </c>
+      <c r="G254" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/countries_continents_codes.xlsx
+++ b/countries_continents_codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F2459B-A20D-4F4A-86FA-238E6E36AC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F9BF44-7D42-42C9-A090-3AA0042B7FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D780024-E873-4056-B730-B9EB86F6C5DD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="539">
   <si>
     <t>No</t>
   </si>
@@ -1647,6 +1647,9 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>EU</t>
   </si>
 </sst>
 </file>
@@ -1998,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA404B15-9916-4CF0-94C9-E1E87D8CCB77}">
-  <dimension ref="A1:G254"/>
+  <dimension ref="A1:G255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="J253" sqref="J253"/>
+      <selection activeCell="K256" sqref="K256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7374,6 +7377,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>538</v>
+      </c>
+      <c r="G255" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
